--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,13 +148,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F140" activeCellId="0" sqref="F140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3505,7 +3505,7 @@
         <v>44302</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>2</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>0</v>
@@ -3546,6 +3546,63 @@
         <v>4</v>
       </c>
       <c r="I139" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <f aca="false">A139+1</f>
+        <v>44304</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <f aca="false">A140+1</f>
+        <v>44305</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <f aca="false">A141+1</f>
+        <v>44306</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,13 +148,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F140" activeCellId="0" sqref="F140"/>
+      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3587,6 +3587,9 @@
       <c r="E141" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="F141" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -3597,12 +3600,51 @@
         <v>2</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E142" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <f aca="false">A142+1</f>
+        <v>44307</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <f aca="false">A143+1</f>
+        <v>44308</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,13 +148,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
+      <selection pane="topLeft" activeCell="F147" activeCellId="0" sqref="F147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3648,6 +3648,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <f aca="false">A144+1</f>
+        <v>44309</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <f aca="false">A145+1</f>
+        <v>44310</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,13 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F147" activeCellId="0" sqref="F147"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H143" activeCellId="0" sqref="H143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3546,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,6 +3571,9 @@
       <c r="F140" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="I140" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -3590,6 +3595,15 @@
       <c r="F141" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="G141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -3608,6 +3622,12 @@
       <c r="E142" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="H142" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -3629,6 +3649,15 @@
       <c r="F143" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="G143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -3672,15 +3701,33 @@
         <v>44310</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <f aca="false">A146+1</f>
+        <v>44311</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" s="0" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H143" activeCellId="0" sqref="H143"/>
+      <selection pane="bottomLeft" activeCell="F149" activeCellId="0" sqref="F149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3731,6 +3731,42 @@
         <v>2</v>
       </c>
     </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <f aca="false">A147+1</f>
+        <v>44312</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <f aca="false">A148+1</f>
+        <v>44313</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F149" activeCellId="0" sqref="F149"/>
+      <selection pane="bottomLeft" activeCell="E154" activeCellId="0" sqref="E154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3767,6 +3767,108 @@
         <v>2</v>
       </c>
     </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <f aca="false">A149+1</f>
+        <v>44314</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <f aca="false">A150+1</f>
+        <v>44315</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <f aca="false">A151+1</f>
+        <v>44316</v>
+      </c>
+      <c r="B152" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <f aca="false">A152+1</f>
+        <v>44317</v>
+      </c>
+      <c r="B153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <f aca="false">A153+1</f>
+        <v>44318</v>
+      </c>
+      <c r="B154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E154" activeCellId="0" sqref="E154"/>
+      <selection pane="bottomLeft" activeCell="I157" activeCellId="0" sqref="I157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3839,7 +3839,7 @@
         <v>44317</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>1</v>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,16 +3857,64 @@
         <v>44318</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <f aca="false">A154+1</f>
+        <v>44319</v>
+      </c>
+      <c r="B155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <f aca="false">A155+1</f>
+        <v>44320</v>
+      </c>
+      <c r="B156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I157" activeCellId="0" sqref="I157"/>
+      <selection pane="bottomLeft" activeCell="J161" activeCellId="0" sqref="J161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -3380,6 +3380,10 @@
       <c r="I133" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J133" s="0" t="str">
+        <f aca="false">IF(SUM(B134:D134)=E134,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
@@ -3410,6 +3414,10 @@
       <c r="I134" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J134" s="0" t="str">
+        <f aca="false">IF(SUM(B135:D135)=E135,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -3440,6 +3448,10 @@
       <c r="I135" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J135" s="0" t="str">
+        <f aca="false">IF(SUM(B136:D136)=E136,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
@@ -3470,6 +3482,10 @@
       <c r="I136" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J136" s="0" t="str">
+        <f aca="false">IF(SUM(B137:D137)=E137,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
@@ -3500,6 +3516,10 @@
       <c r="I137" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J137" s="0" t="str">
+        <f aca="false">IF(SUM(B138:D138)=E138,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
@@ -3530,6 +3550,10 @@
       <c r="I138" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J138" s="0" t="str">
+        <f aca="false">IF(SUM(B139:D139)=E139,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
@@ -3549,6 +3573,10 @@
       </c>
       <c r="I139" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="J139" s="0" t="str">
+        <f aca="false">IF(SUM(B140:D140)=E140,"","x")</f>
+        <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,6 +3602,10 @@
       <c r="I140" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="J140" s="0" t="str">
+        <f aca="false">IF(SUM(B141:D141)=E141,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -3604,6 +3636,10 @@
       <c r="I141" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J141" s="0" t="str">
+        <f aca="false">IF(SUM(B142:D142)=E142,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -3628,6 +3664,10 @@
       <c r="I142" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="J142" s="0" t="str">
+        <f aca="false">IF(SUM(B143:D143)=E143,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -3658,6 +3698,10 @@
       <c r="I143" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J143" s="0" t="str">
+        <f aca="false">IF(SUM(B144:D144)=E144,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -3676,6 +3720,10 @@
       <c r="E144" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J144" s="0" t="str">
+        <f aca="false">IF(SUM(B145:D145)=E145,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
@@ -3694,6 +3742,10 @@
       <c r="E145" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="J145" s="0" t="str">
+        <f aca="false">IF(SUM(B146:D146)=E146,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
@@ -3712,6 +3764,10 @@
       <c r="E146" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J146" s="0" t="str">
+        <f aca="false">IF(SUM(B147:D147)=E147,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
@@ -3730,6 +3786,10 @@
       <c r="E147" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J147" s="0" t="str">
+        <f aca="false">IF(SUM(B148:D148)=E148,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -3748,6 +3808,10 @@
       <c r="E148" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="J148" s="0" t="str">
+        <f aca="false">IF(SUM(B149:D149)=E149,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
@@ -3766,6 +3830,10 @@
       <c r="E149" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J149" s="0" t="str">
+        <f aca="false">IF(SUM(B150:D150)=E150,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
@@ -3796,6 +3864,10 @@
       <c r="I150" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="J150" s="0" t="str">
+        <f aca="false">IF(SUM(B151:D151)=E151,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
@@ -3812,7 +3884,11 @@
         <v>0</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J151" s="0" t="str">
+        <f aca="false">IF(SUM(B152:D152)=E152,"","x")</f>
+        <v/>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,6 +3908,10 @@
       <c r="E152" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J152" s="0" t="str">
+        <f aca="false">IF(SUM(B153:D153)=E153,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
@@ -3850,6 +3930,10 @@
       <c r="E153" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="J153" s="0" t="str">
+        <f aca="false">IF(SUM(B154:D154)=E154,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
@@ -3868,6 +3952,10 @@
       <c r="E154" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="J154" s="0" t="str">
+        <f aca="false">IF(SUM(B155:D155)=E155,"","x")</f>
+        <v/>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
@@ -3881,10 +3969,14 @@
         <v>1</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="J155" s="0" t="str">
+        <f aca="false">IF(SUM(B156:D156)=E156,"","x")</f>
+        <v/>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3893,7 +3985,7 @@
         <v>44320</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>0</v>
@@ -3902,19 +3994,167 @@
         <v>0</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J156" s="0" t="str">
+        <f aca="false">IF(SUM(B157:D157)=E157,"","x")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <f aca="false">A156+1</f>
+        <v>44321</v>
+      </c>
+      <c r="B157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J157" s="0" t="str">
+        <f aca="false">IF(SUM(B158:D158)=E158,"","x")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <f aca="false">A157+1</f>
+        <v>44322</v>
+      </c>
+      <c r="B158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" s="0" t="str">
+        <f aca="false">IF(SUM(B159:D159)=E159,"","x")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <f aca="false">A158+1</f>
+        <v>44323</v>
+      </c>
+      <c r="B159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" s="0" t="str">
+        <f aca="false">IF(SUM(B160:D160)=E160,"","x")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <f aca="false">A159+1</f>
+        <v>44324</v>
+      </c>
+      <c r="B160" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" s="0" t="str">
+        <f aca="false">IF(SUM(B161:D161)=E161,"","x")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <f aca="false">A160+1</f>
+        <v>44325</v>
+      </c>
+      <c r="B161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" s="0" t="str">
+        <f aca="false">IF(SUM(B162:D162)=E162,"","x")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <f aca="false">A161+1</f>
+        <v>44326</v>
+      </c>
+      <c r="B162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" s="0" t="str">
+        <f aca="false">IF(SUM(B163:D163)=E163,"","x")</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J161" activeCellId="0" sqref="J161"/>
+      <selection pane="bottomLeft" activeCell="F170" activeCellId="0" sqref="F170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4157,6 +4157,216 @@
         <v/>
       </c>
     </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <f aca="false">A162+1</f>
+        <v>44327</v>
+      </c>
+      <c r="B163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <f aca="false">A163+1</f>
+        <v>44328</v>
+      </c>
+      <c r="B164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <f aca="false">A164+1</f>
+        <v>44329</v>
+      </c>
+      <c r="B165" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <f aca="false">A165+1</f>
+        <v>44330</v>
+      </c>
+      <c r="B166" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <f aca="false">A166+1</f>
+        <v>44331</v>
+      </c>
+      <c r="B167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <f aca="false">A167+1</f>
+        <v>44332</v>
+      </c>
+      <c r="B168" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <f aca="false">A168+1</f>
+        <v>44333</v>
+      </c>
+      <c r="B169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <f aca="false">A169+1</f>
+        <v>44334</v>
+      </c>
+      <c r="B170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <f aca="false">A170+1</f>
+        <v>44335</v>
+      </c>
+      <c r="B171" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F170" activeCellId="0" sqref="F170"/>
+      <selection pane="bottomLeft" activeCell="B181" activeCellId="0" sqref="B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4367,6 +4367,180 @@
         <v>2</v>
       </c>
     </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <f aca="false">A171+1</f>
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <f aca="false">A172+1</f>
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <f aca="false">A173+1</f>
+        <v>44338</v>
+      </c>
+      <c r="B174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <f aca="false">A174+1</f>
+        <v>44339</v>
+      </c>
+      <c r="B175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <f aca="false">A175+1</f>
+        <v>44340</v>
+      </c>
+      <c r="B176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <f aca="false">A176+1</f>
+        <v>44341</v>
+      </c>
+      <c r="B177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <f aca="false">A177+1</f>
+        <v>44342</v>
+      </c>
+      <c r="B178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <f aca="false">A178+1</f>
+        <v>44343</v>
+      </c>
+      <c r="B179" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <f aca="false">A179+1</f>
+        <v>44344</v>
+      </c>
+      <c r="B180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <f aca="false">A180+1</f>
+        <v>44345</v>
+      </c>
+      <c r="B181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <f aca="false">A181+1</f>
+        <v>44346</v>
+      </c>
+      <c r="B182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:J189"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B181" activeCellId="0" sqref="B181"/>
+      <selection pane="bottomLeft" activeCell="D189" activeCellId="0" sqref="D189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4541,6 +4541,132 @@
         <v>1</v>
       </c>
     </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <f aca="false">A182+1</f>
+        <v>44347</v>
+      </c>
+      <c r="B183" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <f aca="false">A183+1</f>
+        <v>44348</v>
+      </c>
+      <c r="B184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <f aca="false">A184+1</f>
+        <v>44349</v>
+      </c>
+      <c r="B185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <f aca="false">A185+1</f>
+        <v>44350</v>
+      </c>
+      <c r="B186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <f aca="false">A186+1</f>
+        <v>44351</v>
+      </c>
+      <c r="B187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <f aca="false">A187+1</f>
+        <v>44352</v>
+      </c>
+      <c r="B188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <f aca="false">A188+1</f>
+        <v>44353</v>
+      </c>
+      <c r="B189" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J189"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D189" activeCellId="0" sqref="D189"/>
+      <selection pane="bottomLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4655,7 +4655,7 @@
         <v>44353</v>
       </c>
       <c r="B189" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>0</v>
@@ -4664,7 +4664,25 @@
         <v>0</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <f aca="false">A189+1</f>
+        <v>44354</v>
+      </c>
+      <c r="B190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C191" activeCellId="0" sqref="C191"/>
+      <selection pane="bottomLeft" activeCell="B192" activeCellId="0" sqref="B192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4673,16 +4673,124 @@
         <v>44354</v>
       </c>
       <c r="B190" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <f aca="false">A190+1</f>
+        <v>44355</v>
+      </c>
+      <c r="B191" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <f aca="false">A191+1</f>
+        <v>44356</v>
+      </c>
+      <c r="B192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <f aca="false">A192+1</f>
+        <v>44357</v>
+      </c>
+      <c r="B193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <f aca="false">A193+1</f>
+        <v>44358</v>
+      </c>
+      <c r="B194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <f aca="false">A194+1</f>
+        <v>44359</v>
+      </c>
+      <c r="B195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="1" t="n">
+        <f aca="false">A195+1</f>
+        <v>44360</v>
+      </c>
+      <c r="B196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B192" activeCellId="0" sqref="B192"/>
+      <selection pane="bottomLeft" activeCell="B208" activeCellId="0" sqref="B208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4793,6 +4793,222 @@
         <v>0</v>
       </c>
     </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="1" t="n">
+        <f aca="false">A196+1</f>
+        <v>44361</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="1" t="n">
+        <f aca="false">A197+1</f>
+        <v>44362</v>
+      </c>
+      <c r="B198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="1" t="n">
+        <f aca="false">A198+1</f>
+        <v>44363</v>
+      </c>
+      <c r="B199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="1" t="n">
+        <f aca="false">A199+1</f>
+        <v>44364</v>
+      </c>
+      <c r="B200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="1" t="n">
+        <f aca="false">A200+1</f>
+        <v>44365</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="n">
+        <f aca="false">A201+1</f>
+        <v>44366</v>
+      </c>
+      <c r="B202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="n">
+        <f aca="false">A202+1</f>
+        <v>44367</v>
+      </c>
+      <c r="B203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="1" t="n">
+        <f aca="false">A203+1</f>
+        <v>44368</v>
+      </c>
+      <c r="B204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="1" t="n">
+        <f aca="false">A204+1</f>
+        <v>44369</v>
+      </c>
+      <c r="B205" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="1" t="n">
+        <f aca="false">A205+1</f>
+        <v>44370</v>
+      </c>
+      <c r="B206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="1" t="n">
+        <f aca="false">A206+1</f>
+        <v>44371</v>
+      </c>
+      <c r="B207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="1" t="n">
+        <f aca="false">A207+1</f>
+        <v>44372</v>
+      </c>
+      <c r="B208" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J208"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B208" activeCellId="0" sqref="B208"/>
+      <selection pane="bottomLeft" activeCell="J197" activeCellId="0" sqref="J197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4949,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,6 +5007,196 @@
       </c>
       <c r="E208" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="n">
+        <f aca="false">A208+1</f>
+        <v>44373</v>
+      </c>
+      <c r="B209" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <f aca="false">SUM(B209:D209)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="1" t="n">
+        <f aca="false">A209+1</f>
+        <v>44374</v>
+      </c>
+      <c r="B210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <f aca="false">SUM(B210:D210)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="1" t="n">
+        <f aca="false">A210+1</f>
+        <v>44375</v>
+      </c>
+      <c r="B211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <f aca="false">SUM(B211:D211)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="1" t="n">
+        <f aca="false">A211+1</f>
+        <v>44376</v>
+      </c>
+      <c r="B212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <f aca="false">SUM(B212:D212)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="n">
+        <f aca="false">A212+1</f>
+        <v>44377</v>
+      </c>
+      <c r="B213" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <f aca="false">SUM(B213:D213)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="n">
+        <f aca="false">A213+1</f>
+        <v>44378</v>
+      </c>
+      <c r="B214" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <f aca="false">SUM(B214:D214)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="1" t="n">
+        <f aca="false">A214+1</f>
+        <v>44379</v>
+      </c>
+      <c r="B215" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <f aca="false">SUM(B215:D215)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="1" t="n">
+        <f aca="false">A215+1</f>
+        <v>44380</v>
+      </c>
+      <c r="B216" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <f aca="false">SUM(B216:D216)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="1" t="n">
+        <f aca="false">A216+1</f>
+        <v>44381</v>
+      </c>
+      <c r="B217" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <f aca="false">SUM(B217:D217)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="1" t="n">
+        <f aca="false">A217+1</f>
+        <v>44382</v>
+      </c>
+      <c r="B218" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <f aca="false">SUM(B218:D218)</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J230"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J197" activeCellId="0" sqref="J197"/>
+      <selection pane="bottomLeft" activeCell="N215" activeCellId="0" sqref="N215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -4372,12 +4372,39 @@
         <f aca="false">A171+1</f>
         <v>44336</v>
       </c>
+      <c r="B172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <f aca="false">A172+1</f>
         <v>44337</v>
       </c>
+      <c r="B173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
@@ -4403,10 +4430,10 @@
         <v>44339</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" s="0" t="n">
         <v>1</v>
@@ -4522,6 +4549,18 @@
       <c r="E181" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
@@ -4540,6 +4579,18 @@
       <c r="E182" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
@@ -4558,6 +4609,18 @@
       <c r="E183" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F183" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
@@ -4576,6 +4639,18 @@
       <c r="E184" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
@@ -4594,6 +4669,18 @@
       <c r="E185" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F185" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
@@ -4612,6 +4699,18 @@
       <c r="E186" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
@@ -4630,6 +4729,18 @@
       <c r="E187" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
@@ -4648,6 +4759,18 @@
       <c r="E188" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
@@ -4666,6 +4789,18 @@
       <c r="E189" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
@@ -4684,6 +4819,18 @@
       <c r="E190" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
@@ -4702,6 +4849,18 @@
       <c r="E191" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F191" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
@@ -4720,6 +4879,18 @@
       <c r="E192" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
@@ -4738,6 +4909,18 @@
       <c r="E193" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
@@ -4756,6 +4939,18 @@
       <c r="E194" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
@@ -4774,6 +4969,18 @@
       <c r="E195" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
@@ -4792,6 +4999,18 @@
       <c r="E196" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
@@ -4810,6 +5029,18 @@
       <c r="E197" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F197" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
@@ -4828,6 +5059,18 @@
       <c r="E198" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
@@ -4846,6 +5089,18 @@
       <c r="E199" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
@@ -4864,6 +5119,18 @@
       <c r="E200" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
@@ -4882,6 +5149,18 @@
       <c r="E201" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
@@ -4900,6 +5179,18 @@
       <c r="E202" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
@@ -4918,6 +5209,9 @@
       <c r="E203" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="I203" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
@@ -4936,6 +5230,18 @@
       <c r="E204" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
@@ -4954,6 +5260,18 @@
       <c r="E205" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="F205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
@@ -4972,6 +5290,18 @@
       <c r="E206" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
@@ -4990,6 +5320,18 @@
       <c r="E207" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="F207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
@@ -5008,6 +5350,18 @@
       <c r="E208" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="F208" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
@@ -5027,6 +5381,18 @@
         <f aca="false">SUM(B209:D209)</f>
         <v>1</v>
       </c>
+      <c r="F209" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
@@ -5046,6 +5412,18 @@
         <f aca="false">SUM(B210:D210)</f>
         <v>1</v>
       </c>
+      <c r="F210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
@@ -5065,6 +5443,18 @@
         <f aca="false">SUM(B211:D211)</f>
         <v>0</v>
       </c>
+      <c r="F211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
@@ -5084,6 +5474,18 @@
         <f aca="false">SUM(B212:D212)</f>
         <v>0</v>
       </c>
+      <c r="F212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
@@ -5103,6 +5505,18 @@
         <f aca="false">SUM(B213:D213)</f>
         <v>5</v>
       </c>
+      <c r="F213" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
@@ -5110,16 +5524,28 @@
         <v>44378</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E214" s="0" t="n">
         <f aca="false">SUM(B214:D214)</f>
+        <v>1</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G214" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,6 +5567,18 @@
         <f aca="false">SUM(B215:D215)</f>
         <v>3</v>
       </c>
+      <c r="F215" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
@@ -5160,6 +5598,18 @@
         <f aca="false">SUM(B216:D216)</f>
         <v>4</v>
       </c>
+      <c r="F216" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H216" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
@@ -5167,10 +5617,10 @@
         <v>44381</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>0</v>
@@ -5178,6 +5628,18 @@
       <c r="E217" s="0" t="n">
         <f aca="false">SUM(B217:D217)</f>
         <v>5</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5186,17 +5648,383 @@
         <v>44382</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E218" s="0" t="n">
         <f aca="false">SUM(B218:D218)</f>
+        <v>6</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="1" t="n">
+        <f aca="false">A218+1</f>
+        <v>44383</v>
+      </c>
+      <c r="B219" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G219" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="1" t="n">
+        <f aca="false">A219+1</f>
+        <v>44384</v>
+      </c>
+      <c r="B220" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G220" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" s="0" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="1" t="n">
+        <f aca="false">A220+1</f>
+        <v>44385</v>
+      </c>
+      <c r="B221" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G221" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="1" t="n">
+        <f aca="false">A221+1</f>
+        <v>44386</v>
+      </c>
+      <c r="B222" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G222" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="n">
+        <f aca="false">A222+1</f>
+        <v>44387</v>
+      </c>
+      <c r="B223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <f aca="false">A223+1</f>
+        <v>44388</v>
+      </c>
+      <c r="B224" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <f aca="false">A224+1</f>
+        <v>44389</v>
+      </c>
+      <c r="B225" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F225" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <f aca="false">A225+1</f>
+        <v>44390</v>
+      </c>
+      <c r="B226" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F226" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G226" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <f aca="false">A226+1</f>
+        <v>44391</v>
+      </c>
+      <c r="B227" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F227" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <f aca="false">A227+1</f>
+        <v>44392</v>
+      </c>
+      <c r="B228" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F228" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <f aca="false">A228+1</f>
+        <v>44393</v>
+      </c>
+      <c r="B229" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F229" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G229" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <f aca="false">A229+1</f>
+        <v>44394</v>
+      </c>
+      <c r="B230" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D230" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E230" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F230" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I230" s="0" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:J231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N215" activeCellId="0" sqref="N215"/>
+      <selection pane="bottomLeft" activeCell="F203" activeCellId="0" sqref="F203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -6023,8 +6023,44 @@
       <c r="F230" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="G230" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="I230" s="0" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <f aca="false">A230+1</f>
+        <v>44395</v>
+      </c>
+      <c r="B231" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D231" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F231" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G231" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H231" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" s="0" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J231"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F203" activeCellId="0" sqref="F203"/>
+      <selection pane="bottomLeft" activeCell="H235" activeCellId="0" sqref="H235"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -6063,6 +6063,120 @@
         <v>13</v>
       </c>
     </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <f aca="false">A231+1</f>
+        <v>44396</v>
+      </c>
+      <c r="B232" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F232" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G232" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <f aca="false">A232+1</f>
+        <v>44397</v>
+      </c>
+      <c r="B233" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D233" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E233" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F233" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <f aca="false">A233+1</f>
+        <v>44398</v>
+      </c>
+      <c r="B234" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F234" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G234" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H234" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <f aca="false">A234+1</f>
+        <v>44399</v>
+      </c>
+      <c r="B235" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E235" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F235" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G235" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J235"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H235" activeCellId="0" sqref="H235"/>
+      <selection pane="bottomLeft" activeCell="H238" activeCellId="0" sqref="H238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -6135,7 +6135,7 @@
         <v>5</v>
       </c>
       <c r="D234" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234" s="0" t="n">
         <v>13</v>
@@ -6162,19 +6162,85 @@
         <v>12</v>
       </c>
       <c r="C235" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F235" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G235" s="0" t="n">
         <v>4</v>
+      </c>
+      <c r="H235" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <f aca="false">A235+1</f>
+        <v>44400</v>
+      </c>
+      <c r="B236" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D236" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E236" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F236" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G236" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H236" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <f aca="false">A236+1</f>
+        <v>44401</v>
+      </c>
+      <c r="B237" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E237" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F237" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G237" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H237" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" s="0" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J237"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H238" activeCellId="0" sqref="H238"/>
+      <selection pane="bottomLeft" activeCell="I238" activeCellId="0" sqref="I238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -6243,6 +6243,66 @@
         <v>11</v>
       </c>
     </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <f aca="false">A237+1</f>
+        <v>44402</v>
+      </c>
+      <c r="B238" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E238" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F238" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G238" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H238" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <f aca="false">A238+1</f>
+        <v>44403</v>
+      </c>
+      <c r="B239" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D239" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E239" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="F239" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G239" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H239" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -122,13 +122,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -148,15 +152,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I238" activeCellId="0" sqref="I238"/>
+      <selection pane="bottomLeft" activeCell="F190" activeCellId="0" sqref="F190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -5524,10 +5528,10 @@
         <v>44378</v>
       </c>
       <c r="B214" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>0</v>
@@ -5537,10 +5541,10 @@
         <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
         <v>0</v>
@@ -5617,10 +5621,10 @@
         <v>44381</v>
       </c>
       <c r="B217" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C217" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>0</v>
@@ -5648,10 +5652,10 @@
         <v>44382</v>
       </c>
       <c r="B218" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C218" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>1</v>
@@ -5709,10 +5713,10 @@
         <v>44384</v>
       </c>
       <c r="B220" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C220" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>2</v>
@@ -5721,10 +5725,10 @@
         <v>8</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
         <v>0</v>
@@ -5739,10 +5743,10 @@
         <v>44385</v>
       </c>
       <c r="B221" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" s="0" t="n">
         <v>0</v>
@@ -5751,10 +5755,10 @@
         <v>7</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H221" s="0" t="n">
         <v>0</v>
@@ -5829,10 +5833,10 @@
         <v>44388</v>
       </c>
       <c r="B224" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C224" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>0</v>
@@ -5979,10 +5983,10 @@
         <v>44393</v>
       </c>
       <c r="B229" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" s="0" t="n">
         <v>0</v>
@@ -5991,10 +5995,10 @@
         <v>6</v>
       </c>
       <c r="F229" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G229" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229" s="0" t="n">
         <v>0</v>
@@ -6009,22 +6013,22 @@
         <v>44394</v>
       </c>
       <c r="B230" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C230" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D230" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230" s="0" t="n">
         <v>0</v>
@@ -6039,10 +6043,10 @@
         <v>44395</v>
       </c>
       <c r="B231" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C231" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D231" s="0" t="n">
         <v>1</v>
@@ -6051,10 +6055,10 @@
         <v>17</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G231" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H231" s="0" t="n">
         <v>0</v>
@@ -6075,7 +6079,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" s="0" t="n">
         <v>9</v>
@@ -6099,22 +6103,22 @@
         <v>44397</v>
       </c>
       <c r="B233" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C233" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D233" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E233" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F233" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G233" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233" s="0" t="n">
         <v>0</v>
@@ -6129,10 +6133,10 @@
         <v>44398</v>
       </c>
       <c r="B234" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C234" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D234" s="0" t="n">
         <v>2</v>
@@ -6141,10 +6145,10 @@
         <v>13</v>
       </c>
       <c r="F234" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G234" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H234" s="0" t="n">
         <v>0</v>
@@ -6159,22 +6163,22 @@
         <v>44399</v>
       </c>
       <c r="B235" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D235" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235" s="0" t="n">
         <v>17</v>
       </c>
       <c r="F235" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G235" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H235" s="0" t="n">
         <v>0</v>
@@ -6189,22 +6193,22 @@
         <v>44400</v>
       </c>
       <c r="B236" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C236" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D236" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E236" s="0" t="n">
         <v>22</v>
       </c>
       <c r="F236" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G236" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H236" s="0" t="n">
         <v>0</v>
@@ -6219,10 +6223,10 @@
         <v>44401</v>
       </c>
       <c r="B237" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C237" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D237" s="0" t="n">
         <v>0</v>
@@ -6231,10 +6235,10 @@
         <v>16</v>
       </c>
       <c r="F237" s="0" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G237" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H237" s="0" t="n">
         <v>0</v>
@@ -6249,10 +6253,10 @@
         <v>44402</v>
       </c>
       <c r="B238" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C238" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D238" s="0" t="n">
         <v>3</v>
@@ -6261,10 +6265,10 @@
         <v>20</v>
       </c>
       <c r="F238" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G238" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H238" s="0" t="n">
         <v>1</v>
@@ -6279,10 +6283,10 @@
         <v>44403</v>
       </c>
       <c r="B239" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C239" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D239" s="0" t="n">
         <v>2</v>
@@ -6291,16 +6295,80 @@
         <v>33</v>
       </c>
       <c r="F239" s="0" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G239" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H239" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I239" s="0" t="n">
         <v>22</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <f aca="false">A239+1</f>
+        <v>44404</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E240" s="0" t="n">
+        <f aca="false">SUM(B240:D240)</f>
+        <v>41</v>
+      </c>
+      <c r="F240" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G240" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" s="0" t="n">
+        <f aca="false">SUM(F240:H240)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <f aca="false">A240+1</f>
+        <v>44405</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E241" s="0" t="n">
+        <f aca="false">SUM(B241:D241)</f>
+        <v>22</v>
+      </c>
+      <c r="F241" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G241" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" s="0" t="n">
+        <f aca="false">SUM(F241:H241)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/Israel/severe_by_age.xlsx
+++ b/data/Israel/severe_by_age.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">over60</t>
   </si>
   <si>
-    <t xml:space="preserve">40_60</t>
+    <t xml:space="preserve">y40_60</t>
   </si>
   <si>
     <t xml:space="preserve">below40</t>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">over60vacc</t>
   </si>
   <si>
-    <t xml:space="preserve">40_60vacc</t>
+    <t xml:space="preserve">y40_60vacc</t>
   </si>
   <si>
     <t xml:space="preserve">below40vacc</t>
@@ -152,15 +152,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J241"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F190" activeCellId="0" sqref="F190"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.98"/>
@@ -171,6 +171,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3384,10 +3385,6 @@
       <c r="I133" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J133" s="0" t="str">
-        <f aca="false">IF(SUM(B134:D134)=E134,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
@@ -3418,10 +3415,6 @@
       <c r="I134" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J134" s="0" t="str">
-        <f aca="false">IF(SUM(B135:D135)=E135,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -3452,10 +3445,6 @@
       <c r="I135" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J135" s="0" t="str">
-        <f aca="false">IF(SUM(B136:D136)=E136,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
@@ -3486,10 +3475,6 @@
       <c r="I136" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J136" s="0" t="str">
-        <f aca="false">IF(SUM(B137:D137)=E137,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
@@ -3520,10 +3505,6 @@
       <c r="I137" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J137" s="0" t="str">
-        <f aca="false">IF(SUM(B138:D138)=E138,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
@@ -3554,10 +3535,6 @@
       <c r="I138" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J138" s="0" t="str">
-        <f aca="false">IF(SUM(B139:D139)=E139,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
@@ -3577,10 +3554,6 @@
       </c>
       <c r="I139" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J139" s="0" t="str">
-        <f aca="false">IF(SUM(B140:D140)=E140,"","x")</f>
-        <v/>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,10 +3579,6 @@
       <c r="I140" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J140" s="0" t="str">
-        <f aca="false">IF(SUM(B141:D141)=E141,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -3640,10 +3609,6 @@
       <c r="I141" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J141" s="0" t="str">
-        <f aca="false">IF(SUM(B142:D142)=E142,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -3668,10 +3633,6 @@
       <c r="I142" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J142" s="0" t="str">
-        <f aca="false">IF(SUM(B143:D143)=E143,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -3702,10 +3663,6 @@
       <c r="I143" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J143" s="0" t="str">
-        <f aca="false">IF(SUM(B144:D144)=E144,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -3724,10 +3681,6 @@
       <c r="E144" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J144" s="0" t="str">
-        <f aca="false">IF(SUM(B145:D145)=E145,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
@@ -3746,10 +3699,6 @@
       <c r="E145" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J145" s="0" t="str">
-        <f aca="false">IF(SUM(B146:D146)=E146,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
@@ -3768,10 +3717,6 @@
       <c r="E146" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J146" s="0" t="str">
-        <f aca="false">IF(SUM(B147:D147)=E147,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
@@ -3790,10 +3735,6 @@
       <c r="E147" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J147" s="0" t="str">
-        <f aca="false">IF(SUM(B148:D148)=E148,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -3812,10 +3753,6 @@
       <c r="E148" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="J148" s="0" t="str">
-        <f aca="false">IF(SUM(B149:D149)=E149,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
@@ -3834,10 +3771,6 @@
       <c r="E149" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J149" s="0" t="str">
-        <f aca="false">IF(SUM(B150:D150)=E150,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
@@ -3868,10 +3801,6 @@
       <c r="I150" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J150" s="0" t="str">
-        <f aca="false">IF(SUM(B151:D151)=E151,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
@@ -3890,10 +3819,6 @@
       <c r="E151" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J151" s="0" t="str">
-        <f aca="false">IF(SUM(B152:D152)=E152,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
@@ -3912,10 +3837,6 @@
       <c r="E152" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J152" s="0" t="str">
-        <f aca="false">IF(SUM(B153:D153)=E153,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
@@ -3934,10 +3855,6 @@
       <c r="E153" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J153" s="0" t="str">
-        <f aca="false">IF(SUM(B154:D154)=E154,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
@@ -3956,10 +3873,6 @@
       <c r="E154" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J154" s="0" t="str">
-        <f aca="false">IF(SUM(B155:D155)=E155,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
@@ -3978,10 +3891,6 @@
       <c r="E155" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J155" s="0" t="str">
-        <f aca="false">IF(SUM(B156:D156)=E156,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
@@ -4000,10 +3909,6 @@
       <c r="E156" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J156" s="0" t="str">
-        <f aca="false">IF(SUM(B157:D157)=E157,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
@@ -4022,10 +3927,6 @@
       <c r="E157" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J157" s="0" t="str">
-        <f aca="false">IF(SUM(B158:D158)=E158,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
@@ -4044,10 +3945,6 @@
       <c r="E158" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="J158" s="0" t="str">
-        <f aca="false">IF(SUM(B159:D159)=E159,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
@@ -4078,10 +3975,6 @@
       <c r="I159" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J159" s="0" t="str">
-        <f aca="false">IF(SUM(B160:D160)=E160,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
@@ -4100,10 +3993,6 @@
       <c r="E160" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J160" s="0" t="str">
-        <f aca="false">IF(SUM(B161:D161)=E161,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
@@ -4134,10 +4023,6 @@
       <c r="I161" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="J161" s="0" t="str">
-        <f aca="false">IF(SUM(B162:D162)=E162,"","x")</f>
-        <v/>
-      </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
@@ -4155,10 +4040,6 @@
       </c>
       <c r="E162" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="J162" s="0" t="str">
-        <f aca="false">IF(SUM(B163:D163)=E163,"","x")</f>
-        <v/>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
